--- a/Documentation/PMOInformatica Plantilla de Product Backlog.xlsx
+++ b/Documentation/PMOInformatica Plantilla de Product Backlog.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveespochedu-my.sharepoint.com/personal/cristhian_totoy_espoch_edu_ec/Documents/Espoch/8° Semestre/Aplicaciones Informaticas II/GreenPoint/GreenPoint/Documentation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_E07806B1C43E5265A0C3F54CBFF1BAAE7053DE93" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="330" windowWidth="21015" windowHeight="9690"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
@@ -101,8 +107,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,18 +187,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -203,13 +205,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -247,7 +257,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -281,6 +291,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -315,9 +326,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -490,259 +502,259 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="88.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.140625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="1.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="88.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.54296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.1796875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="36">
+    <row r="1" spans="2:9" ht="36" x14ac:dyDescent="0.8">
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="21">
+    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.5">
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="30">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15" customHeight="1">
-      <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+    <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -751,33 +763,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="86" style="5" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="1.54296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="86" style="2" customWidth="1"/>
+    <col min="4" max="4" width="2.81640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="36">
+    <row r="1" spans="2:3" ht="36" x14ac:dyDescent="0.8">
       <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="21">
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.5">
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -785,67 +797,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="45">
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="90">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="45">
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="225">
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="2:3" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="50.25" customHeight="1">
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="60">
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="2:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="60">
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="2:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="30">
-      <c r="B12" s="6" t="s">
+    <row r="12" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>19</v>
       </c>
     </row>
